--- a/ML Model Survey  (Responses).xlsx
+++ b/ML Model Survey  (Responses).xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Form Responses 1'!$A$1:$J$97</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="53">
   <si>
     <t>Timestamp</t>
   </si>
@@ -43,130 +45,133 @@
     <t>How many hours do you spend watching Netflix per week? (put only the number, ex: 2)</t>
   </si>
   <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>A Fancy Restaurant</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Tech/ Software</t>
+  </si>
+  <si>
+    <t>The Beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering </t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <t>Business / Marketing / Accounting</t>
+  </si>
+  <si>
+    <t>VOLUNTEERING</t>
+  </si>
+  <si>
+    <t>A Tropical Forest</t>
+  </si>
+  <si>
+    <t>Civil Service</t>
+  </si>
+  <si>
+    <t>A College Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teaching </t>
+  </si>
+  <si>
+    <t>Advertising / Communications</t>
+  </si>
+  <si>
+    <t>Public Policy/ Law</t>
+  </si>
+  <si>
+    <t>Culinary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police officer </t>
+  </si>
+  <si>
+    <t>N.A.</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Arts</t>
+  </si>
+  <si>
+    <t>Cyan</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Lilac</t>
+  </si>
+  <si>
+    <t>Maroon</t>
+  </si>
+  <si>
+    <t>Olive</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Computer Interaction </t>
+  </si>
+  <si>
     <t>Red</t>
   </si>
   <si>
-    <t>The Beach</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Tech/ Software</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>A Tropical Forest</t>
-  </si>
-  <si>
-    <t>Biotech</t>
+    <t xml:space="preserve">Content Creation </t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health </t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Violet</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
   <si>
     <t>Yellow</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Business / Marketing / Accounting</t>
-  </si>
-  <si>
-    <t>Public Policy/ Law</t>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>A Fancy Restaurant</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>A College Campus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teaching </t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engineering </t>
-  </si>
-  <si>
-    <t>Violet</t>
-  </si>
-  <si>
-    <t>Medicine</t>
-  </si>
-  <si>
-    <t>Civil Service</t>
-  </si>
-  <si>
-    <t>Cyan</t>
-  </si>
-  <si>
-    <t>Automotive</t>
-  </si>
-  <si>
-    <t>Olive</t>
-  </si>
-  <si>
-    <t>Film</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content Creation </t>
-  </si>
-  <si>
-    <t>Silve</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Culinary</t>
-  </si>
-  <si>
-    <t>Sage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health </t>
-  </si>
-  <si>
-    <t>Chemical</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Advertising / Communications</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Arts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Police officer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Military </t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmaceuticals </t>
   </si>
 </sst>
 </file>
@@ -176,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -187,13 +192,23 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -215,6 +230,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,7 +490,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>44254.70326085648</v>
+        <v>44256.5443965625</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -481,86 +499,86 @@
         <v>11</v>
       </c>
       <c r="D2" s="3">
-        <v>69.0</v>
+        <v>68.0</v>
       </c>
       <c r="E2" s="3">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3">
-        <v>14.0</v>
+        <v>50.0</v>
       </c>
       <c r="J2" s="3">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>44254.70414905093</v>
+        <v>44255.504877858795</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="E3" s="3">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" s="3">
-        <v>40.0</v>
+        <v>5.0</v>
       </c>
       <c r="J3" s="3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>44254.706031678244</v>
+        <v>44254.71875862269</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="3">
-        <v>53.0</v>
+        <v>70.0</v>
       </c>
       <c r="E4" s="3">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="J4" s="3">
         <v>0.0</v>
@@ -568,95 +586,95 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>44254.70622501157</v>
+        <v>44255.43103861111</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="E5" s="3">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I5" s="3">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" s="3">
-        <v>30.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>44254.70703446759</v>
+        <v>44254.71258519676</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
-        <v>72.0</v>
+        <v>68.0</v>
       </c>
       <c r="E6" s="3">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" s="3">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="J6" s="3">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>44254.70861219907</v>
+        <v>44255.40012006945</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3">
-        <v>67.0</v>
+        <v>69.0</v>
       </c>
       <c r="E7" s="3">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4">
-        <v>12.0</v>
+        <v>14</v>
+      </c>
+      <c r="I7" s="3">
+        <v>55.0</v>
       </c>
       <c r="J7" s="3">
         <v>0.0</v>
@@ -664,159 +682,159 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>44254.71068870371</v>
+        <v>44255.37205607639</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4">
-        <v>74.0</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="3">
+        <v>72.0</v>
       </c>
       <c r="E8" s="3">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" s="3">
-        <v>20.0</v>
+        <v>45.0</v>
       </c>
       <c r="J8" s="3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>44254.71147288194</v>
+        <v>44254.933738692125</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
         <v>68.0</v>
       </c>
       <c r="E9" s="3">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I9" s="3">
         <v>25.0</v>
       </c>
       <c r="J9" s="3">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>44254.712518125</v>
+        <v>44254.735662060186</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3">
-        <v>60.0</v>
+        <v>79.0</v>
       </c>
       <c r="E10" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="3">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="J10" s="3">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>44254.71258519676</v>
+        <v>44254.71550100694</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3">
-        <v>68.0</v>
+        <v>63.0</v>
       </c>
       <c r="E11" s="3">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I11" s="3">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="J11" s="3">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>44254.71491943287</v>
+        <v>44256.20098255787</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <v>69.5</v>
+        <v>70.0</v>
       </c>
       <c r="E12" s="3">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I12" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J12" s="3">
         <v>0.0</v>
@@ -824,31 +842,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>44254.71550100694</v>
+        <v>44254.72439833333</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="E13" s="3">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I13" s="3">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" s="3">
         <v>0.0</v>
@@ -856,51 +874,51 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>44254.71875862269</v>
+        <v>44254.976805115744</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3">
         <v>70.0</v>
       </c>
       <c r="E14" s="3">
-        <v>5.0</v>
+        <v>1.5</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I14" s="3">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
       <c r="J14" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>44254.72302989583</v>
+        <v>44255.62296255787</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3">
-        <v>74.0</v>
+        <v>69.0</v>
       </c>
       <c r="E15" s="3">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
@@ -909,173 +927,173 @@
         <v>12</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" s="3">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="J15" s="3">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>44254.72439833333</v>
+        <v>44259.228541979166</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3">
-        <v>65.0</v>
+        <v>73.0</v>
       </c>
       <c r="E16" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I16" s="3">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="J16" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>44254.724485300925</v>
+        <v>44259.44752050926</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="3">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="E17" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I17" s="3">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J17" s="3">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>44254.72449396991</v>
+        <v>44259.67058276621</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="3">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="E18" s="3">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I18" s="3">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="J18" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>44254.724883773146</v>
+        <v>44259.87404303241</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="E19" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.0</v>
+        <v>14</v>
+      </c>
+      <c r="I19" s="3">
+        <v>40.0</v>
       </c>
       <c r="J19" s="3">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>44254.72723862268</v>
+        <v>44254.70414905093</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3">
-        <v>71.0</v>
+        <v>67.0</v>
       </c>
       <c r="E20" s="3">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I20" s="3">
-        <v>55.0</v>
+        <v>40.0</v>
       </c>
       <c r="J20" s="3">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -1083,10 +1101,10 @@
         <v>44254.72939571759</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3">
         <v>64.0</v>
@@ -1095,13 +1113,13 @@
         <v>3.0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I21" s="3">
         <v>20.0</v>
@@ -1112,16 +1130,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>44254.7329615625</v>
+        <v>44254.99822408565</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="3">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="E22" s="3">
         <v>0.0</v>
@@ -1130,27 +1148,27 @@
         <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I22" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J22" s="3">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>44254.73325597223</v>
+        <v>44254.78726028935</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3">
         <v>72.0</v>
@@ -1159,48 +1177,48 @@
         <v>3.0</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I23" s="3">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="J23" s="3">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>44254.73557682871</v>
+        <v>44254.929513298615</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3">
-        <v>63.0</v>
+        <v>70.0</v>
       </c>
       <c r="E24" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I24" s="3">
-        <v>16.0</v>
+        <v>30.0</v>
       </c>
       <c r="J24" s="3">
         <v>3.0</v>
@@ -1208,16 +1226,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>44254.735662060186</v>
+        <v>44254.73557682871</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D25" s="3">
-        <v>79.0</v>
+        <v>63.0</v>
       </c>
       <c r="E25" s="3">
         <v>3.0</v>
@@ -1226,155 +1244,155 @@
         <v>12</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I25" s="3">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="J25" s="3">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>44254.73813082176</v>
+        <v>44256.477314965276</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3">
-        <v>73.0</v>
+        <v>63.0</v>
       </c>
       <c r="E26" s="3">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I26" s="3">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="J26" s="3">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>44254.73844943287</v>
+        <v>44270.723633981484</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D27" s="3">
-        <v>71.5</v>
+        <v>66.0</v>
       </c>
       <c r="E27" s="3">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I27" s="3">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J27" s="3">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>44254.73929193287</v>
+        <v>44254.813770023145</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="3">
-        <v>66.0</v>
+        <v>70.0</v>
       </c>
       <c r="E28" s="3">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I28" s="3">
-        <v>48.0</v>
+        <v>20.0</v>
       </c>
       <c r="J28" s="3">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>44254.740404375</v>
+        <v>44255.5521958912</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D29" s="3">
-        <v>63.0</v>
+        <v>72.0</v>
       </c>
       <c r="E29" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="J29" s="3">
         <v>5.0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>7.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>44254.74291865741</v>
+        <v>44254.768353125</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D30" s="3">
         <v>70.0</v>
@@ -1383,164 +1401,164 @@
         <v>6.0</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I30" s="3">
-        <v>60.0</v>
+        <v>15.0</v>
       </c>
       <c r="J30" s="3">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>44254.75195361111</v>
+        <v>44254.74291865741</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D31" s="3">
-        <v>71.0</v>
+        <v>70.0</v>
       </c>
       <c r="E31" s="3">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I31" s="3">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J31" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>44254.752474583336</v>
+        <v>44258.3426497801</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D32" s="3">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="E32" s="3">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I32" s="3">
         <v>40.0</v>
       </c>
       <c r="J32" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>44254.75400722222</v>
+        <v>44254.71147288194</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D33" s="3">
-        <v>67.7</v>
+        <v>68.0</v>
       </c>
       <c r="E33" s="3">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I33" s="3">
-        <v>42.0</v>
+        <v>25.0</v>
       </c>
       <c r="J33" s="3">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>44254.754056516205</v>
+        <v>44255.43575547454</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D34" s="3">
-        <v>74.0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>6.0</v>
+        <v>62.0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I34" s="3">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="J34" s="3">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>44254.76722872685</v>
+        <v>44255.70237005787</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="3">
-        <v>73.0</v>
+        <v>66.0</v>
       </c>
       <c r="E35" s="3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
@@ -1548,255 +1566,255 @@
       <c r="G35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>13</v>
+      <c r="H35" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I35" s="3">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="J35" s="3">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>44254.768353125</v>
+        <v>44254.73325597223</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D36" s="3">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="E36" s="3">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I36" s="3">
-        <v>15.0</v>
+        <v>50.0</v>
       </c>
       <c r="J36" s="3">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>44254.78458097222</v>
+        <v>44254.724485300925</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D37" s="3">
-        <v>67.0</v>
+        <v>72.0</v>
       </c>
       <c r="E37" s="3">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I37" s="3">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="J37" s="3">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>44254.786498333335</v>
+        <v>44255.40389400463</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D38" s="3">
-        <v>71.0</v>
+        <v>63.0</v>
       </c>
       <c r="E38" s="3">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I38" s="3">
-        <v>18.0</v>
+        <v>40.0</v>
       </c>
       <c r="J38" s="3">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>44254.78726028935</v>
+        <v>44255.59232976852</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="3">
-        <v>72.0</v>
+        <v>63.0</v>
       </c>
       <c r="E39" s="3">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I39" s="3">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="J39" s="3">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>44254.813770023145</v>
+        <v>44255.60538025463</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="3">
-        <v>70.0</v>
+        <v>63.0</v>
       </c>
       <c r="E40" s="3">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I40" s="3">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J40" s="3">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>44254.87028596065</v>
+        <v>44254.87372884259</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D41" s="3">
-        <v>66.5</v>
+        <v>70.0</v>
       </c>
       <c r="E41" s="3">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I41" s="3">
-        <v>9.0</v>
+        <v>34.0</v>
       </c>
       <c r="J41" s="3">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>44254.87372884259</v>
+        <v>44254.87028596065</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="3">
-        <v>70.0</v>
+        <v>66.5</v>
       </c>
       <c r="E42" s="3">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I42" s="3">
-        <v>34.0</v>
+        <v>9.0</v>
       </c>
       <c r="J42" s="3">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>44254.88767851852</v>
+        <v>44254.70622501157</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D43" s="3">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="E43" s="3">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
@@ -1805,210 +1823,213 @@
         <v>12</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I43" s="3">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="J43" s="3">
-        <v>2.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>44254.929513298615</v>
+        <v>44255.51222287037</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D44" s="3">
-        <v>70.0</v>
+        <v>67.0</v>
       </c>
       <c r="E44" s="3">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I44" s="3">
-        <v>30.0</v>
+        <v>38.0</v>
       </c>
       <c r="J44" s="3">
-        <v>3.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>44254.933738692125</v>
+        <v>44255.304020509255</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D45" s="3">
-        <v>68.0</v>
+        <v>59.0</v>
       </c>
       <c r="E45" s="3">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>43</v>
+      <c r="H45" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="I45" s="3">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="J45" s="3">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>44254.976805115744</v>
+        <v>44255.501258495366</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="3">
-        <v>70.0</v>
+        <v>66.0</v>
       </c>
       <c r="E46" s="3">
-        <v>1.5</v>
+        <v>8.0</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I46" s="3">
-        <v>55.0</v>
+        <v>25.0</v>
       </c>
       <c r="J46" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>44254.9940122338</v>
+        <v>44254.73844943287</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D47" s="3">
-        <v>68.0</v>
+        <v>71.5</v>
       </c>
       <c r="E47" s="3">
-        <v>7.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I47" s="3">
-        <v>18.0</v>
+        <v>50.0</v>
       </c>
       <c r="J47" s="3">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>44254.99822408565</v>
+        <v>44258.435306851854</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="3">
-        <v>70.0</v>
+        <v>11</v>
+      </c>
+      <c r="D48" s="4">
+        <v>60.23</v>
       </c>
       <c r="E48" s="3">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I48" s="3">
-        <v>2.0</v>
+        <v>40.0</v>
       </c>
       <c r="J48" s="3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>44255.05675466435</v>
+        <v>44254.71068870371</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="3">
-        <v>64.0</v>
+        <v>15</v>
+      </c>
+      <c r="D49" s="4">
+        <v>74.0</v>
       </c>
       <c r="E49" s="3">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I49" s="3">
-        <v>60.0</v>
+        <v>20.0</v>
       </c>
       <c r="J49" s="3">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>44255.17710513889</v>
+        <v>44254.73813082176</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>15</v>
@@ -2017,83 +2038,83 @@
         <v>73.0</v>
       </c>
       <c r="E50" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I50" s="3">
-        <v>35.0</v>
+        <v>10.0</v>
       </c>
       <c r="J50" s="3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>44255.304020509255</v>
+        <v>44254.71491943287</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D51" s="3">
-        <v>59.0</v>
+        <v>69.5</v>
       </c>
       <c r="E51" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I51" s="3">
         <v>0.0</v>
       </c>
       <c r="J51" s="3">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>44255.37205607639</v>
+        <v>44258.068934236115</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D52" s="3">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="E52" s="3">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I52" s="3">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="J52" s="3">
         <v>0.0</v>
@@ -2101,176 +2122,179 @@
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>44255.38804193287</v>
+        <v>44270.93341491898</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D53" s="3">
+        <v>65.0</v>
+      </c>
       <c r="E53" s="3">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I53" s="3">
-        <v>45.0</v>
+        <v>10.0</v>
       </c>
       <c r="J53" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>44255.389983622685</v>
+        <v>44254.76722872685</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D54" s="3">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="E54" s="3">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I54" s="3">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="J54" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>44255.40012006945</v>
+        <v>44255.38804193287</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="3">
-        <v>69.0</v>
+      <c r="D55" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E55" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="J55" s="3">
         <v>2.0</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="3">
-        <v>55.0</v>
-      </c>
-      <c r="J55" s="3">
-        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>44255.40389400463</v>
+        <v>44254.72302989583</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D56" s="3">
-        <v>63.0</v>
+        <v>74.0</v>
       </c>
       <c r="E56" s="3">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I56" s="3">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J56" s="3">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>44255.43103861111</v>
+        <v>44255.45482792824</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="3">
-        <v>63.0</v>
+        <v>58.0</v>
       </c>
       <c r="E57" s="3">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>28</v>
+      <c r="H57" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I57" s="3">
         <v>40.0</v>
       </c>
       <c r="J57" s="3">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>44255.43575547454</v>
+        <v>44255.49350049769</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D58" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0.0</v>
+        <v>70.0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2.0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>12</v>
@@ -2278,203 +2302,203 @@
       <c r="G58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>45</v>
+      <c r="H58" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I58" s="3">
-        <v>15.0</v>
+        <v>80.0</v>
       </c>
       <c r="J58" s="3">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>44255.438674247685</v>
+        <v>44254.7329615625</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D59" s="3">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="E59" s="3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I59" s="3">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="J59" s="3">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>44255.45482792824</v>
+        <v>44256.93640011574</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D60" s="3">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="E60" s="3">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I60" s="3">
         <v>40.0</v>
       </c>
       <c r="J60" s="3">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>44255.49350049769</v>
+        <v>44264.068333194446</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D61" s="3">
-        <v>70.0</v>
+        <v>63.0</v>
       </c>
       <c r="E61" s="3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I61" s="3">
-        <v>80.0</v>
+        <v>40.0</v>
       </c>
       <c r="J61" s="3">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>44255.501258495366</v>
+        <v>44256.29806296296</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D62" s="3">
-        <v>66.0</v>
+        <v>70.8</v>
       </c>
       <c r="E62" s="3">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I62" s="3">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="J62" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>44255.50354337963</v>
+        <v>44254.73929193287</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D63" s="3">
-        <v>60.0</v>
+        <v>66.0</v>
       </c>
       <c r="E63" s="3">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I63" s="3">
-        <v>4.0</v>
+        <v>48.0</v>
       </c>
       <c r="J63" s="3">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>44255.504877858795</v>
+        <v>44255.643157743056</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="3">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="E64" s="3">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I64" s="3">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="J64" s="3">
         <v>0.0</v>
@@ -2482,42 +2506,42 @@
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>44255.51222287037</v>
+        <v>44254.752474583336</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D65" s="3">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="E65" s="3">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="I65" s="3">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="J65" s="3">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>44255.5521958912</v>
+        <v>44254.70703446759</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>11</v>
@@ -2526,278 +2550,278 @@
         <v>72.0</v>
       </c>
       <c r="E66" s="3">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I66" s="3">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="J66" s="3">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>44255.5651100463</v>
+        <v>44260.874902118056</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D67" s="3">
-        <v>75.0</v>
+        <v>67.2</v>
       </c>
       <c r="E67" s="3">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I67" s="3">
-        <v>65.0</v>
+        <v>20.0</v>
       </c>
       <c r="J67" s="3">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>44255.5804437037</v>
+        <v>44280.72230090278</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D68" s="3">
         <v>68.0</v>
       </c>
       <c r="E68" s="3">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I68" s="3">
-        <v>20.0</v>
+        <v>80.0</v>
       </c>
       <c r="J68" s="3">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>44255.59232976852</v>
+        <v>44255.389983622685</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="3">
-        <v>63.0</v>
+        <v>72.0</v>
       </c>
       <c r="E69" s="3">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I69" s="3">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="J69" s="3">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>44255.60538025463</v>
+        <v>44255.17710513889</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="3">
-        <v>63.0</v>
+        <v>73.0</v>
       </c>
       <c r="E70" s="3">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I70" s="3">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="J70" s="3">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>44255.62296255787</v>
+        <v>44254.754056516205</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D71" s="3">
-        <v>69.0</v>
+        <v>74.0</v>
       </c>
       <c r="E71" s="3">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I71" s="3">
-        <v>50.0</v>
+        <v>25.0</v>
       </c>
       <c r="J71" s="3">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>44255.643157743056</v>
+        <v>44256.38133783565</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D72" s="3">
-        <v>72.0</v>
+        <v>71.0</v>
       </c>
       <c r="E72" s="3">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I72" s="3">
-        <v>10.0</v>
+        <v>63.0</v>
       </c>
       <c r="J72" s="3">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>44255.6625321412</v>
+        <v>44254.724883773146</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D73" s="3">
         <v>70.0</v>
       </c>
       <c r="E73" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I73" s="3">
-        <v>20.0</v>
+        <v>17</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0.0</v>
       </c>
       <c r="J73" s="3">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>44255.70237005787</v>
+        <v>44254.72723862268</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D74" s="3">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E74" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I74" s="3">
-        <v>62.0</v>
+        <v>55.0</v>
       </c>
       <c r="J74" s="3">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="75">
@@ -2805,10 +2829,10 @@
         <v>44255.76226939815</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D75" s="3">
         <v>61.0</v>
@@ -2817,13 +2841,13 @@
         <v>0.0</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I75" s="3">
         <v>0.0</v>
@@ -2832,7 +2856,719 @@
         <v>7.0</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>44255.5651100463</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="3">
+        <v>75.0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="3">
+        <v>65.0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>44254.78458097222</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="3">
+        <v>67.0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>44254.75195361111</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="3">
+        <v>71.0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>44254.70861219907</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="3">
+        <v>67.0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>44268.769595868056</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="3">
+        <v>63.0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>44255.6625321412</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>44255.438674247685</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="J82" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>44256.885359594904</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="3">
+        <v>68.0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>44255.05675466435</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="3">
+        <v>64.0</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="J84" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>44254.712518125</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="J85" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>44256.595679328704</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="J86" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>44254.740404375</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="3">
+        <v>63.0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="J87" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>44254.70326085648</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="3">
+        <v>69.0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="J88" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>44254.88767851852</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="3">
+        <v>64.0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I89" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>44254.75400722222</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="3">
+        <v>67.7</v>
+      </c>
+      <c r="E90" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="3">
+        <v>42.0</v>
+      </c>
+      <c r="J90" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>44255.50354337963</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>44254.9940122338</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="3">
+        <v>68.0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>44254.72449396991</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>44255.5804437037</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="3">
+        <v>68.0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>44254.786498333335</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="3">
+        <v>71.0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="J95" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>44254.706031678244</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="3">
+        <v>53.0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>44260.48435680555</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="J97" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="$A$1:$J$97">
+    <sortState ref="A1:J97">
+      <sortCondition ref="B1:B97"/>
+      <sortCondition ref="J1:J97"/>
+      <sortCondition descending="1" ref="I1:I97"/>
+      <sortCondition ref="G1:G97"/>
+      <sortCondition ref="F1:F97"/>
+      <sortCondition ref="E1:E97"/>
+      <sortCondition descending="1" ref="D1:D97"/>
+    </sortState>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>